--- a/Correlation data/Correlations_Snails.xlsx
+++ b/Correlation data/Correlations_Snails.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,6 +388,26 @@
           <t>siglet.loc</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>n_dens</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>se_dens</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>siglet.loc_dens</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -414,6 +434,20 @@
           <t>ab</t>
         </is>
       </c>
+      <c r="G2">
+        <v>0.8150000000000001</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>0.1744913242033031</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ab</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -440,6 +474,20 @@
           <t>a</t>
         </is>
       </c>
+      <c r="G3">
+        <v>0.19</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>0.05617433182117573</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -466,6 +514,20 @@
           <t>ab</t>
         </is>
       </c>
+      <c r="G4">
+        <v>0.265</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>0.143768718588031</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -492,6 +554,20 @@
           <t>ab</t>
         </is>
       </c>
+      <c r="G5">
+        <v>0.515</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>0.1162014534236891</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -518,6 +594,20 @@
           <t>b</t>
         </is>
       </c>
+      <c r="G6">
+        <v>1.2</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>0.1503699142485328</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -537,9 +627,23 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>0.1751130865040843</v>
+        <v>0.1751130865040842</v>
       </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G7">
+        <v>0.345</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>0.1278997002863311</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>a</t>
         </is>
